--- a/documentation/Results.xlsx
+++ b/documentation/Results.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davigrossihasuda/Documents/ITA/TG/tg-differential-privacy/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8226A0E7-15A1-B54C-B632-83D92634794A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82738501-CEC2-474B-80CC-A620B2E64BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20400" yWindow="1220" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{788FEABF-C896-4644-B5AB-9B7AB986D1F6}"/>
+    <workbookView xWindow="20400" yWindow="1220" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{788FEABF-C896-4644-B5AB-9B7AB986D1F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Decision Tree" sheetId="1" r:id="rId1"/>
     <sheet name="SVM" sheetId="2" r:id="rId2"/>
+    <sheet name="Naïve Bayes" sheetId="3" r:id="rId3"/>
+    <sheet name="MLP" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
   <si>
     <t>Dataset</t>
   </si>
@@ -70,6 +72,12 @@
   </si>
   <si>
     <t>Accuracy (%)</t>
+  </si>
+  <si>
+    <t>breastCancerDataProvider</t>
+  </si>
+  <si>
+    <t>breastCancerAdapter</t>
   </si>
 </sst>
 </file>
@@ -170,9 +178,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -507,110 +516,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>80000</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>0.3</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>71.236460436937705</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>0.03</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>67.314003120983998</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>0.03</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>40.279052689553801</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>0.3</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>60.9693409216082</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>0.3</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>29.875390123003399</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -621,6 +630,251 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569A7802-53C0-914D-85C2-DFDBB62A616E}">
   <dimension ref="A1:D9"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3">
+        <v>94.736842105263094</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>93.567251461988207</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="8">
+        <v>87.719298245613999</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>87.719298245613999</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF0EE78-51DB-DE4F-8A39-8016F79640FE}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="A1:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5">
+        <v>80000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8">
+        <v>92.397660818713405</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>89.473684210526301</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="8">
+        <v>84.210526315789394</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8">
+        <v>86.549707602339097</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>71.345029239766006</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="34" spans="4:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC629143-33C2-944E-9CDD-CCD67B7B5DCB}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
@@ -628,110 +882,110 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5">
         <v>80000</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>0.3</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
-        <v>94.736842105263094</v>
-      </c>
-      <c r="D5" s="4"/>
+      <c r="C5" s="8">
+        <v>40.350877192982402</v>
+      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="C6" s="6">
-        <v>93.567251461988207</v>
-      </c>
-      <c r="D6" s="4"/>
+      <c r="B6" s="5">
+        <v>100</v>
+      </c>
+      <c r="C6" s="8">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="C7" s="7">
-        <v>87.719298245613999</v>
-      </c>
-      <c r="D7" s="4"/>
+      <c r="B7" s="5">
+        <v>100</v>
+      </c>
+      <c r="C7" s="8">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>87.719298245613999</v>
-      </c>
-      <c r="D8" s="4"/>
+      <c r="B8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="8">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="B9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="8">
         <v>59.649122807017498</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentation/Results.xlsx
+++ b/documentation/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davigrossihasuda/Documents/ITA/TG/tg-differential-privacy/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82738501-CEC2-474B-80CC-A620B2E64BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458DEA5B-AD55-984B-888F-992BAC5AF475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20400" yWindow="1220" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{788FEABF-C896-4644-B5AB-9B7AB986D1F6}"/>
+    <workbookView xWindow="10540" yWindow="840" windowWidth="20520" windowHeight="17480" activeTab="1" xr2:uid="{788FEABF-C896-4644-B5AB-9B7AB986D1F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Decision Tree" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="143" workbookViewId="0">
-      <selection sqref="A1:D9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569A7802-53C0-914D-85C2-DFDBB62A616E}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF0EE78-51DB-DE4F-8A39-8016F79640FE}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="A1:D9"/>
+    <sheetView zoomScale="210" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -875,11 +875,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC629143-33C2-944E-9CDD-CCD67B7B5DCB}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="209" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">

--- a/documentation/Results.xlsx
+++ b/documentation/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davigrossihasuda/Documents/ITA/TG/tg-differential-privacy/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458DEA5B-AD55-984B-888F-992BAC5AF475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9ECAEE-F91E-5748-8BAF-24A5AB7D036E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10540" yWindow="840" windowWidth="20520" windowHeight="17480" activeTab="1" xr2:uid="{788FEABF-C896-4644-B5AB-9B7AB986D1F6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{788FEABF-C896-4644-B5AB-9B7AB986D1F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Decision Tree" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="22">
   <si>
     <t>Dataset</t>
   </si>
@@ -79,12 +79,39 @@
   <si>
     <t>breastCancerAdapter</t>
   </si>
+  <si>
+    <t>Adjusted by data avg size</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Valid result</t>
+  </si>
+  <si>
+    <t>Very unstable</t>
+  </si>
+  <si>
+    <t>Very Unstable</t>
+  </si>
+  <si>
+    <t>Not Privatized</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.00000000000000"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,13 +152,21 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,13 +175,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,16 +231,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -203,6 +268,1152 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Decision Tree</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> with privatize</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decision Tree'!$H$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Laplace</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Decision Tree'!$I$18:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decision Tree'!$I$19:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>000,000,000,000,000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>72.239879750321194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.855011933174197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.1674545621443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48249036166697201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.66199284009546</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBE9-3F45-964F-A86BB23DB69D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decision Tree'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exponential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Decision Tree'!$I$18:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decision Tree'!$I$20:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>000,000,000,000,000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>35.357765742610603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.368597393060398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.398017257205801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.74116486139159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0171424637415001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FBE9-3F45-964F-A86BB23DB69D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decision Tree'!$H$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not Privatized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Decision Tree'!$I$18:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decision Tree'!$I$21:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>000,000,000,000,000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>72.298398200844503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.298398200844503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.298398200844503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.298398200844503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.298398200844503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FBE9-3F45-964F-A86BB23DB69D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1953984544"/>
+        <c:axId val="1953208768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1953984544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1953208768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1953208768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1953984544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>280681</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>106509</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>839492</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>53814</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19115A3-BD00-744D-AFDE-D349A2CF4F14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -502,245 +1713,1274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587E835A-7F9E-0544-80B2-DE3CEEEE3ED6}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView zoomScale="143" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="E10" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M21" sqref="K21:M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="9">
         <v>80000</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="9">
         <v>0.3</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="E4" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
         <v>71.236460436937705</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="E5" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
         <v>0.03</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7">
         <v>67.314003120983998</v>
       </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="E6" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6">
         <v>0.03</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8">
         <v>40.279052689553801</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="E7" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19">
+      <c r="A8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6">
         <v>0.3</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8">
         <v>60.9693409216082</v>
       </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="E8" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19">
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6">
         <v>0.3</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8">
         <v>29.875390123003399</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="E9" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5">
+        <v>56.7238847071782</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5">
+        <v>40.760969340921598</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5">
+        <v>85.830503029190297</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="9">
+        <v>10000</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="D17" s="9">
+        <v>100</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="H18" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J18" s="19">
+        <v>0.03</v>
+      </c>
+      <c r="K18" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="L18" s="19">
+        <v>5</v>
+      </c>
+      <c r="M18" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="19">
+      <c r="A19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="20">
+        <v>72.239879750321194</v>
+      </c>
+      <c r="J19" s="20">
+        <v>67.855011933174197</v>
+      </c>
+      <c r="K19" s="20">
+        <v>53.1674545621443</v>
+      </c>
+      <c r="L19" s="20">
+        <v>0.48249036166697201</v>
+      </c>
+      <c r="M19" s="20">
+        <v>3.66199284009546</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="19">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="5">
+        <v>72.298398200844503</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="20">
+        <v>35.357765742610603</v>
+      </c>
+      <c r="J20" s="20">
+        <v>38.368597393060398</v>
+      </c>
+      <c r="K20" s="20">
+        <v>31.398017257205801</v>
+      </c>
+      <c r="L20" s="20">
+        <v>3.74116486139159</v>
+      </c>
+      <c r="M20" s="20">
+        <v>3.0171424637415001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="19">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="5">
+        <v>3.66199284009546</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="20">
+        <v>72.298398200844503</v>
+      </c>
+      <c r="J21" s="20">
+        <v>72.298398200844503</v>
+      </c>
+      <c r="K21" s="20">
+        <v>72.298398200844503</v>
+      </c>
+      <c r="L21" s="20">
+        <v>72.298398200844503</v>
+      </c>
+      <c r="M21" s="20">
+        <v>72.298398200844503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="19">
+      <c r="A22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3">
+        <v>10</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3.0171424637415001</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="19">
+      <c r="A23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="18">
+        <v>0.48249036166697201</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="19">
+      <c r="A24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3.74116486139159</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="19">
+      <c r="A25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="5">
+        <v>53.1674545621443</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="19">
+      <c r="A26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="5">
+        <v>31.398017257205801</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="19">
+      <c r="A27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="5">
+        <v>67.855011933174197</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="19">
+      <c r="A28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="5">
+        <v>38.368597393060398</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="19">
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="5">
+        <v>72.239879750321194</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="19">
+      <c r="A30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="5">
+        <v>35.357765742610603</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569A7802-53C0-914D-85C2-DFDBB62A616E}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="116" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="19">
+      <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="9">
         <v>1000</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="9">
         <v>0.3</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" ht="19">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="E4" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8">
         <v>94.736842105263094</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
         <v>0.3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7">
         <v>93.567251461988207</v>
       </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6">
         <v>0.3</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8">
         <v>87.719298245613999</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19">
+      <c r="A8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6">
         <v>5</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8">
         <v>87.719298245613999</v>
       </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="E8" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19">
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6">
         <v>5</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8">
         <v>59.649122807017498</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="E9" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>90.643274853801103</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2">
+        <v>90.058479532163702</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2">
+        <v>88.3040935672514</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2">
+        <v>83.625730994151994</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2">
+        <v>78.947368421052602</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2">
+        <v>34.502923976608102</v>
+      </c>
+      <c r="G17" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="H17" s="2">
+        <v>40.350877192982402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" ht="19">
+      <c r="A23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="9">
+        <v>10000</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="D23" s="9">
+        <v>100</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" ht="19">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19">
+      <c r="A26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2">
+        <v>90.643274853801103</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19">
+      <c r="A27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="2">
+        <v>90.643274853801103</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19">
+      <c r="A28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="2">
+        <v>89.473684210526301</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19">
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2">
+        <v>83.625730994151994</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19">
+      <c r="A30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="2">
+        <v>78.947368421052602</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19">
+      <c r="A31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="3">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="2">
+        <v>61.403508771929801</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19">
+      <c r="A32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="3">
+        <v>3</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="19">
+      <c r="A33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="3">
+        <v>10</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="19">
+      <c r="A34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="3">
+        <v>10</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:10" ht="19">
+      <c r="A38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="9">
+        <v>100000</v>
+      </c>
+      <c r="C38" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="D38" s="9">
+        <v>100</v>
+      </c>
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="1:10" ht="19">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="19">
+      <c r="A41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2">
+        <v>90.643274853801103</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="19">
+      <c r="A42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="2">
+        <v>91.812865497076004</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="19">
+      <c r="A43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="2">
+        <v>90.058479532163702</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="19">
+      <c r="A44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="2">
+        <v>83.040935672514607</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="19">
+      <c r="A45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="2">
+        <v>78.947368421052602</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="19">
+      <c r="A46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="3">
+        <v>3</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="2">
+        <v>61.988304093567201</v>
+      </c>
+      <c r="G46" s="2">
+        <v>90.058479532163702</v>
+      </c>
+      <c r="H46">
+        <v>60.8187134502923</v>
+      </c>
+      <c r="I46" s="2">
+        <v>85.380116959064296</v>
+      </c>
+      <c r="J46" s="2">
+        <v>59.649122807017498</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="19">
+      <c r="A47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="3">
+        <v>3</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="19">
+      <c r="A48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="3">
+        <v>10</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="19">
+      <c r="A49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="3">
+        <v>10</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -749,122 +2989,780 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF0EE78-51DB-DE4F-8A39-8016F79640FE}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView zoomScale="210" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A7" zoomScale="113" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="9">
         <v>80000</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="9">
         <v>0.3</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="E4" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8">
         <v>92.397660818713405</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
         <v>0.3</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8">
         <v>89.473684210526301</v>
       </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6">
         <v>0.3</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8">
         <v>84.210526315789394</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19">
+      <c r="A8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6">
         <v>5</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8">
         <v>86.549707602339097</v>
       </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="E8" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19">
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6">
         <v>5</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8">
         <v>71.345029239766006</v>
       </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="34" spans="4:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="D34" s="2"/>
+      <c r="E9" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="D14" s="9">
+        <v>100</v>
+      </c>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19">
+      <c r="A17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2">
+        <v>92.397660818713405</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19">
+      <c r="A18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2">
+        <v>85.964912280701697</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19">
+      <c r="A19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2">
+        <v>71.345029239766006</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19">
+      <c r="A20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="12">
+        <v>5</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="2">
+        <v>60.233918128654899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19">
+      <c r="A21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="12">
+        <v>5</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19">
+      <c r="A22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="12">
+        <v>10</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="2">
+        <v>40.350877192982402</v>
+      </c>
+      <c r="G22" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="H22" s="2">
+        <v>38.5964912280701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19">
+      <c r="A23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="12">
+        <v>10</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="9">
+        <v>10000</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="D28" s="9">
+        <v>100</v>
+      </c>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19">
+      <c r="A31" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="2">
+        <v>92.397660818713405</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19">
+      <c r="A32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="2">
+        <v>92.397660818713405</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="19">
+      <c r="A33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="2">
+        <v>91.812865497076004</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="19">
+      <c r="A34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="2">
+        <v>83.625730994151994</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="19">
+      <c r="A35" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="2">
+        <v>72.514619883040893</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="19">
+      <c r="A36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="12">
+        <v>5</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="2">
+        <v>30.994152046783601</v>
+      </c>
+      <c r="G36" s="2">
+        <v>40.350877192982402</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19">
+      <c r="A37" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="12">
+        <v>5</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="19">
+      <c r="A38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="12">
+        <v>10</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="2">
+        <v>40.350877192982402</v>
+      </c>
+      <c r="G38" s="2">
+        <v>59.649122807017498</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="19">
+      <c r="A39" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="12">
+        <v>10</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="9">
+        <v>100000</v>
+      </c>
+      <c r="C43" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="D43" s="9">
+        <v>100</v>
+      </c>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="19">
+      <c r="A46" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="2">
+        <v>92.397660818713405</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="19">
+      <c r="A47" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="2">
+        <v>92.397660818713405</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="19">
+      <c r="A48" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="2">
+        <v>91.228070175438503</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="19">
+      <c r="A49" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="2">
+        <v>83.625730994151994</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="19">
+      <c r="A50" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="2">
+        <v>71.345029239766006</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="19">
+      <c r="A51" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="12">
+        <v>5</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="2">
+        <v>40.350877192982402</v>
+      </c>
+      <c r="G51" s="2">
+        <v>59.649122807017498</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="19">
+      <c r="A52" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="12">
+        <v>5</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="19">
+      <c r="A53" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="12">
+        <v>10</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="2">
+        <v>40.350877192982402</v>
+      </c>
+      <c r="G53" s="2">
+        <v>59.649122807017498</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="19">
+      <c r="A54" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="12">
+        <v>10</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -873,122 +3771,815 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC629143-33C2-944E-9CDD-CCD67B7B5DCB}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView zoomScale="209" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="9">
         <v>80000</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="9">
         <v>0.3</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="E4" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8">
         <v>40.350877192982402</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
         <v>100</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8">
         <v>59.649122807017498</v>
       </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6">
         <v>100</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8">
         <v>59.649122807017498</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19">
+      <c r="A8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6">
         <v>1000</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8">
         <v>59.649122807017498</v>
       </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="E8" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19">
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6">
         <v>1000</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8">
         <v>59.649122807017498</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="E9" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="D18" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" ht="19">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="19">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="19">
+      <c r="A22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="19">
+      <c r="A23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="19">
+      <c r="A24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2">
+        <v>40.350877192982402</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="19">
+      <c r="A25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2">
+        <v>40.350877192982402</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="19">
+      <c r="A26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="2">
+        <v>40.350877192982402</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="19">
+      <c r="A27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="3">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="G27" s="2">
+        <v>40.350877192982402</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="19">
+      <c r="A28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="3">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="G28" s="2">
+        <v>40.350877192982402</v>
+      </c>
+      <c r="I28" s="2">
+        <v>64.912280701754298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="9">
+        <v>10000</v>
+      </c>
+      <c r="C32" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="D32" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" ht="19">
+      <c r="A34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="2">
+        <v>94.152046783625707</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="19">
+      <c r="A35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="19">
+      <c r="A36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="19">
+      <c r="A37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="G37" s="2">
+        <v>40.350877192982402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="19">
+      <c r="A38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="G38" s="2">
+        <v>40.350877192982402</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="19">
+      <c r="A39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="3">
+        <v>5</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="2">
+        <v>40.350877192982402</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="19">
+      <c r="A40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="3">
+        <v>5</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="2">
+        <v>40.350877192982402</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="19">
+      <c r="A41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="3">
+        <v>10</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="G41" s="2">
+        <v>40.350877192982402</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="19">
+      <c r="A42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="3">
+        <v>10</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="G42" s="2">
+        <v>40.350877192982402</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="19">
+      <c r="A43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="2">
+        <v>40.350877192982402</v>
+      </c>
+      <c r="G43" s="2">
+        <v>93.567251461988207</v>
+      </c>
+      <c r="H43" s="2">
+        <v>59.649122807017498</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="19">
+      <c r="A44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="2">
+        <v>40.350877192982402</v>
+      </c>
+      <c r="G44" s="2">
+        <v>59.649122807017498</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="9">
+        <v>100000</v>
+      </c>
+      <c r="C47" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="D47" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:5" ht="19">
+      <c r="A49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="2">
+        <v>60.233918128654899</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="19">
+      <c r="A50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="19">
+      <c r="A51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="19">
+      <c r="A52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="2">
+        <v>40.350877192982402</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="19">
+      <c r="A53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="19">
+      <c r="A54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="3">
+        <v>5</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="2">
+        <v>59.649122807017498</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="19">
+      <c r="A55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="3">
+        <v>5</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="2">
+        <v>40.350877192982402</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="19">
+      <c r="A56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="3">
+        <v>10</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="2">
+        <v>40.350877192982402</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="19">
+      <c r="A57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="3">
+        <v>10</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="2">
+        <v>40.350877192982402</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="19">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:5" ht="19">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
